--- a/ML_4/DataSet2.xlsx
+++ b/ML_4/DataSet2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahav\Downloads\ML_Lab\ML_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="245">
   <si>
     <t>ZA1082T6</t>
   </si>
@@ -168,6 +168,597 @@
   </si>
   <si>
     <t>ZA10ATVH</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>serial_number</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>capacity_bytes</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>datacenter</t>
+  </si>
+  <si>
+    <t>cluster_id</t>
+  </si>
+  <si>
+    <t>vault_id</t>
+  </si>
+  <si>
+    <t>pod_id</t>
+  </si>
+  <si>
+    <t>pod_slot_num</t>
+  </si>
+  <si>
+    <t>is_legacy_format</t>
+  </si>
+  <si>
+    <t>smart_1_normalized</t>
+  </si>
+  <si>
+    <t>smart_1_raw</t>
+  </si>
+  <si>
+    <t>smart_2_normalized</t>
+  </si>
+  <si>
+    <t>smart_2_raw</t>
+  </si>
+  <si>
+    <t>smart_3_normalized</t>
+  </si>
+  <si>
+    <t>smart_3_raw</t>
+  </si>
+  <si>
+    <t>smart_4_normalized</t>
+  </si>
+  <si>
+    <t>smart_4_raw</t>
+  </si>
+  <si>
+    <t>smart_5_normalized</t>
+  </si>
+  <si>
+    <t>smart_5_raw</t>
+  </si>
+  <si>
+    <t>smart_7_normalized</t>
+  </si>
+  <si>
+    <t>smart_7_raw</t>
+  </si>
+  <si>
+    <t>smart_8_normalized</t>
+  </si>
+  <si>
+    <t>smart_8_raw</t>
+  </si>
+  <si>
+    <t>smart_9_normalized</t>
+  </si>
+  <si>
+    <t>smart_9_raw</t>
+  </si>
+  <si>
+    <t>smart_10_normalized</t>
+  </si>
+  <si>
+    <t>smart_10_raw</t>
+  </si>
+  <si>
+    <t>smart_11_normalized</t>
+  </si>
+  <si>
+    <t>smart_11_raw</t>
+  </si>
+  <si>
+    <t>smart_12_normalized</t>
+  </si>
+  <si>
+    <t>smart_12_raw</t>
+  </si>
+  <si>
+    <t>smart_13_normalized</t>
+  </si>
+  <si>
+    <t>smart_13_raw</t>
+  </si>
+  <si>
+    <t>smart_15_normalized</t>
+  </si>
+  <si>
+    <t>smart_15_raw</t>
+  </si>
+  <si>
+    <t>smart_16_normalized</t>
+  </si>
+  <si>
+    <t>smart_16_raw</t>
+  </si>
+  <si>
+    <t>smart_17_normalized</t>
+  </si>
+  <si>
+    <t>smart_17_raw</t>
+  </si>
+  <si>
+    <t>smart_18_normalized</t>
+  </si>
+  <si>
+    <t>smart_18_raw</t>
+  </si>
+  <si>
+    <t>smart_22_normalized</t>
+  </si>
+  <si>
+    <t>smart_22_raw</t>
+  </si>
+  <si>
+    <t>smart_23_normalized</t>
+  </si>
+  <si>
+    <t>smart_23_raw</t>
+  </si>
+  <si>
+    <t>smart_24_normalized</t>
+  </si>
+  <si>
+    <t>smart_24_raw</t>
+  </si>
+  <si>
+    <t>smart_27_normalized</t>
+  </si>
+  <si>
+    <t>smart_27_raw</t>
+  </si>
+  <si>
+    <t>smart_71_normalized</t>
+  </si>
+  <si>
+    <t>smart_71_raw</t>
+  </si>
+  <si>
+    <t>smart_82_normalized</t>
+  </si>
+  <si>
+    <t>smart_82_raw</t>
+  </si>
+  <si>
+    <t>smart_90_normalized</t>
+  </si>
+  <si>
+    <t>smart_90_raw</t>
+  </si>
+  <si>
+    <t>smart_160_normalized</t>
+  </si>
+  <si>
+    <t>smart_160_raw</t>
+  </si>
+  <si>
+    <t>smart_161_normalized</t>
+  </si>
+  <si>
+    <t>smart_161_raw</t>
+  </si>
+  <si>
+    <t>smart_163_normalized</t>
+  </si>
+  <si>
+    <t>smart_163_raw</t>
+  </si>
+  <si>
+    <t>smart_164_normalized</t>
+  </si>
+  <si>
+    <t>smart_164_raw</t>
+  </si>
+  <si>
+    <t>smart_165_normalized</t>
+  </si>
+  <si>
+    <t>smart_165_raw</t>
+  </si>
+  <si>
+    <t>smart_166_normalized</t>
+  </si>
+  <si>
+    <t>smart_166_raw</t>
+  </si>
+  <si>
+    <t>smart_167_normalized</t>
+  </si>
+  <si>
+    <t>smart_167_raw</t>
+  </si>
+  <si>
+    <t>smart_168_normalized</t>
+  </si>
+  <si>
+    <t>smart_168_raw</t>
+  </si>
+  <si>
+    <t>smart_169_normalized</t>
+  </si>
+  <si>
+    <t>smart_169_raw</t>
+  </si>
+  <si>
+    <t>smart_170_normalized</t>
+  </si>
+  <si>
+    <t>smart_170_raw</t>
+  </si>
+  <si>
+    <t>smart_171_normalized</t>
+  </si>
+  <si>
+    <t>smart_171_raw</t>
+  </si>
+  <si>
+    <t>smart_172_normalized</t>
+  </si>
+  <si>
+    <t>smart_172_raw</t>
+  </si>
+  <si>
+    <t>smart_173_normalized</t>
+  </si>
+  <si>
+    <t>smart_173_raw</t>
+  </si>
+  <si>
+    <t>smart_174_normalized</t>
+  </si>
+  <si>
+    <t>smart_174_raw</t>
+  </si>
+  <si>
+    <t>smart_175_normalized</t>
+  </si>
+  <si>
+    <t>smart_175_raw</t>
+  </si>
+  <si>
+    <t>smart_176_normalized</t>
+  </si>
+  <si>
+    <t>smart_176_raw</t>
+  </si>
+  <si>
+    <t>smart_177_normalized</t>
+  </si>
+  <si>
+    <t>smart_177_raw</t>
+  </si>
+  <si>
+    <t>smart_178_normalized</t>
+  </si>
+  <si>
+    <t>smart_178_raw</t>
+  </si>
+  <si>
+    <t>smart_179_normalized</t>
+  </si>
+  <si>
+    <t>smart_179_raw</t>
+  </si>
+  <si>
+    <t>smart_180_normalized</t>
+  </si>
+  <si>
+    <t>smart_180_raw</t>
+  </si>
+  <si>
+    <t>smart_181_normalized</t>
+  </si>
+  <si>
+    <t>smart_181_raw</t>
+  </si>
+  <si>
+    <t>smart_182_normalized</t>
+  </si>
+  <si>
+    <t>smart_182_raw</t>
+  </si>
+  <si>
+    <t>smart_183_normalized</t>
+  </si>
+  <si>
+    <t>smart_183_raw</t>
+  </si>
+  <si>
+    <t>smart_184_normalized</t>
+  </si>
+  <si>
+    <t>smart_184_raw</t>
+  </si>
+  <si>
+    <t>smart_187_normalized</t>
+  </si>
+  <si>
+    <t>smart_187_raw</t>
+  </si>
+  <si>
+    <t>smart_188_normalized</t>
+  </si>
+  <si>
+    <t>smart_188_raw</t>
+  </si>
+  <si>
+    <t>smart_189_normalized</t>
+  </si>
+  <si>
+    <t>smart_189_raw</t>
+  </si>
+  <si>
+    <t>smart_190_normalized</t>
+  </si>
+  <si>
+    <t>smart_190_raw</t>
+  </si>
+  <si>
+    <t>smart_191_normalized</t>
+  </si>
+  <si>
+    <t>smart_191_raw</t>
+  </si>
+  <si>
+    <t>smart_192_normalized</t>
+  </si>
+  <si>
+    <t>smart_192_raw</t>
+  </si>
+  <si>
+    <t>smart_193_normalized</t>
+  </si>
+  <si>
+    <t>smart_193_raw</t>
+  </si>
+  <si>
+    <t>smart_194_normalized</t>
+  </si>
+  <si>
+    <t>smart_194_raw</t>
+  </si>
+  <si>
+    <t>smart_195_normalized</t>
+  </si>
+  <si>
+    <t>smart_195_raw</t>
+  </si>
+  <si>
+    <t>smart_196_normalized</t>
+  </si>
+  <si>
+    <t>smart_196_raw</t>
+  </si>
+  <si>
+    <t>smart_197_normalized</t>
+  </si>
+  <si>
+    <t>smart_197_raw</t>
+  </si>
+  <si>
+    <t>smart_198_normalized</t>
+  </si>
+  <si>
+    <t>smart_198_raw</t>
+  </si>
+  <si>
+    <t>smart_199_normalized</t>
+  </si>
+  <si>
+    <t>smart_199_raw</t>
+  </si>
+  <si>
+    <t>smart_200_normalized</t>
+  </si>
+  <si>
+    <t>smart_200_raw</t>
+  </si>
+  <si>
+    <t>smart_201_normalized</t>
+  </si>
+  <si>
+    <t>smart_201_raw</t>
+  </si>
+  <si>
+    <t>smart_202_normalized</t>
+  </si>
+  <si>
+    <t>smart_202_raw</t>
+  </si>
+  <si>
+    <t>smart_206_normalized</t>
+  </si>
+  <si>
+    <t>smart_206_raw</t>
+  </si>
+  <si>
+    <t>smart_210_normalized</t>
+  </si>
+  <si>
+    <t>smart_210_raw</t>
+  </si>
+  <si>
+    <t>smart_211_normalized</t>
+  </si>
+  <si>
+    <t>smart_211_raw</t>
+  </si>
+  <si>
+    <t>smart_212_normalized</t>
+  </si>
+  <si>
+    <t>smart_212_raw</t>
+  </si>
+  <si>
+    <t>smart_218_normalized</t>
+  </si>
+  <si>
+    <t>smart_218_raw</t>
+  </si>
+  <si>
+    <t>smart_220_normalized</t>
+  </si>
+  <si>
+    <t>smart_220_raw</t>
+  </si>
+  <si>
+    <t>smart_222_normalized</t>
+  </si>
+  <si>
+    <t>smart_222_raw</t>
+  </si>
+  <si>
+    <t>smart_223_normalized</t>
+  </si>
+  <si>
+    <t>smart_223_raw</t>
+  </si>
+  <si>
+    <t>smart_224_normalized</t>
+  </si>
+  <si>
+    <t>smart_224_raw</t>
+  </si>
+  <si>
+    <t>smart_225_normalized</t>
+  </si>
+  <si>
+    <t>smart_225_raw</t>
+  </si>
+  <si>
+    <t>smart_226_normalized</t>
+  </si>
+  <si>
+    <t>smart_226_raw</t>
+  </si>
+  <si>
+    <t>smart_230_normalized</t>
+  </si>
+  <si>
+    <t>smart_230_raw</t>
+  </si>
+  <si>
+    <t>smart_231_normalized</t>
+  </si>
+  <si>
+    <t>smart_231_raw</t>
+  </si>
+  <si>
+    <t>smart_232_normalized</t>
+  </si>
+  <si>
+    <t>smart_232_raw</t>
+  </si>
+  <si>
+    <t>smart_233_normalized</t>
+  </si>
+  <si>
+    <t>smart_233_raw</t>
+  </si>
+  <si>
+    <t>smart_234_normalized</t>
+  </si>
+  <si>
+    <t>smart_234_raw</t>
+  </si>
+  <si>
+    <t>smart_235_normalized</t>
+  </si>
+  <si>
+    <t>smart_235_raw</t>
+  </si>
+  <si>
+    <t>smart_240_normalized</t>
+  </si>
+  <si>
+    <t>smart_240_raw</t>
+  </si>
+  <si>
+    <t>smart_241_normalized</t>
+  </si>
+  <si>
+    <t>smart_241_raw</t>
+  </si>
+  <si>
+    <t>smart_242_normalized</t>
+  </si>
+  <si>
+    <t>smart_242_raw</t>
+  </si>
+  <si>
+    <t>smart_244_normalized</t>
+  </si>
+  <si>
+    <t>smart_244_raw</t>
+  </si>
+  <si>
+    <t>smart_245_normalized</t>
+  </si>
+  <si>
+    <t>smart_245_raw</t>
+  </si>
+  <si>
+    <t>smart_246_normalized</t>
+  </si>
+  <si>
+    <t>smart_246_raw</t>
+  </si>
+  <si>
+    <t>smart_247_normalized</t>
+  </si>
+  <si>
+    <t>smart_247_raw</t>
+  </si>
+  <si>
+    <t>smart_248_normalized</t>
+  </si>
+  <si>
+    <t>smart_248_raw</t>
+  </si>
+  <si>
+    <t>smart_250_normalized</t>
+  </si>
+  <si>
+    <t>smart_250_raw</t>
+  </si>
+  <si>
+    <t>smart_251_normalized</t>
+  </si>
+  <si>
+    <t>smart_251_raw</t>
+  </si>
+  <si>
+    <t>smart_252_normalized</t>
+  </si>
+  <si>
+    <t>smart_252_raw</t>
+  </si>
+  <si>
+    <t>smart_254_normalized</t>
+  </si>
+  <si>
+    <t>smart_254_raw</t>
+  </si>
+  <si>
+    <t>smart_255_normalized</t>
+  </si>
+  <si>
+    <t>smart_255_raw</t>
   </si>
 </sst>
 </file>
@@ -487,199 +1078,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FU46"/>
+  <dimension ref="A1:GO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:GP46"/>
+    <sheetView tabSelected="1" topLeftCell="GU1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>45658</v>
+    <row r="1" spans="1:197" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>8001560000000</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>1028</v>
-      </c>
-      <c r="I1">
-        <v>10</v>
-      </c>
-      <c r="J1">
-        <v>39</v>
-      </c>
-      <c r="K1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" t="s">
         <v>82</v>
       </c>
-      <c r="M1">
-        <v>160624776</v>
-      </c>
-      <c r="P1">
+      <c r="AJ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>100</v>
-      </c>
-      <c r="S1">
-        <v>14</v>
-      </c>
-      <c r="T1">
-        <v>100</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
+      <c r="AL1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" t="s">
         <v>96</v>
       </c>
-      <c r="W1">
-        <v>4252243427</v>
-      </c>
-      <c r="Z1">
-        <v>14</v>
-      </c>
-      <c r="AA1">
-        <v>75436</v>
-      </c>
-      <c r="AB1">
-        <v>100</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>100</v>
-      </c>
-      <c r="AG1">
-        <v>14</v>
-      </c>
-      <c r="CZ1">
-        <v>100</v>
-      </c>
-      <c r="DA1">
-        <v>0</v>
-      </c>
-      <c r="DB1">
-        <v>100</v>
-      </c>
-      <c r="DC1">
-        <v>0</v>
-      </c>
-      <c r="DD1">
-        <v>100</v>
-      </c>
-      <c r="DE1">
-        <v>0</v>
-      </c>
-      <c r="DF1">
-        <v>100</v>
-      </c>
-      <c r="DG1">
-        <v>0</v>
-      </c>
-      <c r="DH1">
-        <v>62</v>
-      </c>
-      <c r="DI1">
-        <v>38</v>
-      </c>
-      <c r="DJ1">
-        <v>100</v>
-      </c>
-      <c r="DK1">
-        <v>0</v>
-      </c>
-      <c r="DL1">
-        <v>100</v>
-      </c>
-      <c r="DM1">
+      <c r="AX1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>179</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>180</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>181</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>182</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>183</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>190</v>
+      </c>
+      <c r="EN1" t="s">
         <v>191</v>
       </c>
-      <c r="DN1">
-        <v>100</v>
-      </c>
-      <c r="DO1">
-        <v>545</v>
-      </c>
-      <c r="DP1">
-        <v>38</v>
-      </c>
-      <c r="DQ1">
-        <v>38</v>
-      </c>
-      <c r="DR1">
-        <v>1</v>
-      </c>
-      <c r="DS1">
-        <v>160624776</v>
-      </c>
-      <c r="DV1">
-        <v>100</v>
-      </c>
-      <c r="DW1">
-        <v>0</v>
-      </c>
-      <c r="DX1">
-        <v>100</v>
-      </c>
-      <c r="DY1">
-        <v>0</v>
-      </c>
-      <c r="DZ1">
+      <c r="EO1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>194</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>195</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>196</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>198</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>199</v>
+      </c>
+      <c r="EW1" t="s">
         <v>200</v>
       </c>
-      <c r="EA1">
-        <v>0</v>
-      </c>
-      <c r="FP1">
-        <v>100</v>
-      </c>
-      <c r="FQ1">
-        <v>75412</v>
-      </c>
-      <c r="FR1">
-        <v>100</v>
-      </c>
-      <c r="FS1" s="2">
-        <v>123070000000</v>
-      </c>
-      <c r="FT1">
-        <v>100</v>
-      </c>
-      <c r="FU1" s="2">
-        <v>544431000000</v>
+      <c r="EX1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>204</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>205</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>206</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>207</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>208</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>209</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>210</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>211</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>212</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>213</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>215</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>216</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>217</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>218</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>219</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>220</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>221</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>222</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>223</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>224</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>225</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>226</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>228</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>229</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>230</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>231</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>232</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>233</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>234</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>235</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>236</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>237</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>238</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>239</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>240</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>241</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>242</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>243</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45658</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -700,7 +1708,7 @@
         <v>1028</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>39</v>
@@ -712,7 +1720,7 @@
         <v>82</v>
       </c>
       <c r="M2">
-        <v>159372448</v>
+        <v>160624776</v>
       </c>
       <c r="P2">
         <v>84</v>
@@ -724,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="S2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T2">
         <v>100</v>
@@ -736,13 +1744,13 @@
         <v>96</v>
       </c>
       <c r="W2">
-        <v>3883311959</v>
+        <v>4252243427</v>
       </c>
       <c r="Z2">
         <v>14</v>
       </c>
       <c r="AA2">
-        <v>75440</v>
+        <v>75436</v>
       </c>
       <c r="AB2">
         <v>100</v>
@@ -754,7 +1762,7 @@
         <v>100</v>
       </c>
       <c r="AG2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CZ2">
         <v>100</v>
@@ -781,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="DH2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DI2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="DJ2">
         <v>100</v>
@@ -796,25 +1804,25 @@
         <v>100</v>
       </c>
       <c r="DM2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="DN2">
         <v>100</v>
       </c>
       <c r="DO2">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="DP2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="DQ2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="DR2">
         <v>1</v>
       </c>
       <c r="DS2">
-        <v>159372448</v>
+        <v>160624776</v>
       </c>
       <c r="DV2">
         <v>100</v>
@@ -838,27 +1846,27 @@
         <v>100</v>
       </c>
       <c r="FQ2">
-        <v>75416</v>
+        <v>75412</v>
       </c>
       <c r="FR2">
         <v>100</v>
       </c>
       <c r="FS2" s="2">
-        <v>124290000000</v>
+        <v>123070000000</v>
       </c>
       <c r="FT2">
         <v>100</v>
       </c>
       <c r="FU2" s="2">
-        <v>586599000000</v>
+        <v>544431000000</v>
       </c>
     </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45658</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -879,19 +1887,19 @@
         <v>1028</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M3">
-        <v>24866440</v>
+        <v>159372448</v>
       </c>
       <c r="P3">
         <v>84</v>
@@ -903,7 +1911,7 @@
         <v>100</v>
       </c>
       <c r="S3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="T3">
         <v>100</v>
@@ -915,13 +1923,13 @@
         <v>96</v>
       </c>
       <c r="W3">
-        <v>3558728305</v>
+        <v>3883311959</v>
       </c>
       <c r="Z3">
         <v>14</v>
       </c>
       <c r="AA3">
-        <v>75442</v>
+        <v>75440</v>
       </c>
       <c r="AB3">
         <v>100</v>
@@ -933,7 +1941,7 @@
         <v>100</v>
       </c>
       <c r="AG3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="CZ3">
         <v>100</v>
@@ -960,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="DH3">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="DI3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="DJ3">
         <v>100</v>
@@ -975,25 +1983,25 @@
         <v>100</v>
       </c>
       <c r="DM3">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="DN3">
         <v>100</v>
       </c>
       <c r="DO3">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="DP3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="DQ3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="DR3">
         <v>1</v>
       </c>
       <c r="DS3">
-        <v>24866440</v>
+        <v>159372448</v>
       </c>
       <c r="DV3">
         <v>100</v>
@@ -1017,27 +2025,27 @@
         <v>100</v>
       </c>
       <c r="FQ3">
-        <v>75418</v>
+        <v>75416</v>
       </c>
       <c r="FR3">
         <v>100</v>
       </c>
       <c r="FS3" s="2">
-        <v>126590000000</v>
+        <v>124290000000</v>
       </c>
       <c r="FT3">
         <v>100</v>
       </c>
       <c r="FU3" s="2">
-        <v>614101000000</v>
+        <v>586599000000</v>
       </c>
     </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45658</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1058,19 +2066,19 @@
         <v>1028</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M4">
-        <v>131160200</v>
+        <v>24866440</v>
       </c>
       <c r="P4">
         <v>84</v>
@@ -1082,7 +2090,7 @@
         <v>100</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -1094,13 +2102,13 @@
         <v>96</v>
       </c>
       <c r="W4">
-        <v>4286877974</v>
+        <v>3558728305</v>
       </c>
       <c r="Z4">
         <v>14</v>
       </c>
       <c r="AA4">
-        <v>75439</v>
+        <v>75442</v>
       </c>
       <c r="AB4">
         <v>100</v>
@@ -1112,7 +2120,7 @@
         <v>100</v>
       </c>
       <c r="AG4">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CZ4">
         <v>100</v>
@@ -1139,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="DH4">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="DI4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="DJ4">
         <v>100</v>
@@ -1154,25 +2162,25 @@
         <v>100</v>
       </c>
       <c r="DM4">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="DN4">
         <v>100</v>
       </c>
       <c r="DO4">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="DP4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="DQ4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="DR4">
         <v>1</v>
       </c>
       <c r="DS4">
-        <v>131160200</v>
+        <v>24866440</v>
       </c>
       <c r="DV4">
         <v>100</v>
@@ -1196,27 +2204,27 @@
         <v>100</v>
       </c>
       <c r="FQ4">
-        <v>75415</v>
+        <v>75418</v>
       </c>
       <c r="FR4">
         <v>100</v>
       </c>
       <c r="FS4" s="2">
-        <v>125568000000</v>
+        <v>126590000000</v>
       </c>
       <c r="FT4">
         <v>100</v>
       </c>
       <c r="FU4" s="2">
-        <v>468131000000</v>
+        <v>614101000000</v>
       </c>
     </row>
-    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45658</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1237,19 +2245,19 @@
         <v>1028</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M5">
-        <v>33793648</v>
+        <v>131160200</v>
       </c>
       <c r="P5">
         <v>84</v>
@@ -1261,7 +2269,7 @@
         <v>100</v>
       </c>
       <c r="S5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>100</v>
@@ -1273,13 +2281,13 @@
         <v>96</v>
       </c>
       <c r="W5">
-        <v>4072091478</v>
+        <v>4286877974</v>
       </c>
       <c r="Z5">
         <v>14</v>
       </c>
       <c r="AA5">
-        <v>75432</v>
+        <v>75439</v>
       </c>
       <c r="AB5">
         <v>100</v>
@@ -1291,7 +2299,7 @@
         <v>100</v>
       </c>
       <c r="AG5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="CZ5">
         <v>100</v>
@@ -1318,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="DH5">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="DI5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="DJ5">
         <v>100</v>
@@ -1333,25 +2341,25 @@
         <v>100</v>
       </c>
       <c r="DM5">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DN5">
         <v>100</v>
       </c>
       <c r="DO5">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="DP5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="DQ5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="DR5">
         <v>1</v>
       </c>
       <c r="DS5">
-        <v>33793648</v>
+        <v>131160200</v>
       </c>
       <c r="DV5">
         <v>100</v>
@@ -1375,27 +2383,27 @@
         <v>100</v>
       </c>
       <c r="FQ5">
-        <v>75408</v>
+        <v>75415</v>
       </c>
       <c r="FR5">
         <v>100</v>
       </c>
       <c r="FS5" s="2">
-        <v>122115000000</v>
+        <v>125568000000</v>
       </c>
       <c r="FT5">
         <v>100</v>
       </c>
       <c r="FU5" s="2">
-        <v>503674000000</v>
+        <v>468131000000</v>
       </c>
     </row>
-    <row r="6" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45658</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1416,19 +2424,19 @@
         <v>1028</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>89184992</v>
+        <v>33793648</v>
       </c>
       <c r="P6">
         <v>84</v>
@@ -1440,7 +2448,7 @@
         <v>100</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T6">
         <v>100</v>
@@ -1452,13 +2460,13 @@
         <v>96</v>
       </c>
       <c r="W6">
-        <v>4232683867</v>
+        <v>4072091478</v>
       </c>
       <c r="Z6">
         <v>14</v>
       </c>
       <c r="AA6">
-        <v>75434</v>
+        <v>75432</v>
       </c>
       <c r="AB6">
         <v>100</v>
@@ -1470,7 +2478,7 @@
         <v>100</v>
       </c>
       <c r="AG6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CZ6">
         <v>100</v>
@@ -1497,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="DH6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DI6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DJ6">
         <v>100</v>
@@ -1512,25 +2520,25 @@
         <v>100</v>
       </c>
       <c r="DM6">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="DN6">
         <v>100</v>
       </c>
       <c r="DO6">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="DP6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DQ6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DR6">
         <v>1</v>
       </c>
       <c r="DS6">
-        <v>89184992</v>
+        <v>33793648</v>
       </c>
       <c r="DV6">
         <v>100</v>
@@ -1554,27 +2562,27 @@
         <v>100</v>
       </c>
       <c r="FQ6">
-        <v>75411</v>
+        <v>75408</v>
       </c>
       <c r="FR6">
         <v>100</v>
       </c>
       <c r="FS6" s="2">
-        <v>123570000000</v>
+        <v>122115000000</v>
       </c>
       <c r="FT6">
         <v>100</v>
       </c>
       <c r="FU6" s="2">
-        <v>544601000000</v>
+        <v>503674000000</v>
       </c>
     </row>
-    <row r="7" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45658</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1595,10 +2603,10 @@
         <v>1028</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1607,7 +2615,7 @@
         <v>80</v>
       </c>
       <c r="M7">
-        <v>98591248</v>
+        <v>89184992</v>
       </c>
       <c r="P7">
         <v>84</v>
@@ -1619,7 +2627,7 @@
         <v>100</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>100</v>
@@ -1631,13 +2639,13 @@
         <v>96</v>
       </c>
       <c r="W7">
-        <v>4175340044</v>
+        <v>4232683867</v>
       </c>
       <c r="Z7">
         <v>14</v>
       </c>
       <c r="AA7">
-        <v>75461</v>
+        <v>75434</v>
       </c>
       <c r="AB7">
         <v>100</v>
@@ -1649,7 +2657,7 @@
         <v>100</v>
       </c>
       <c r="AG7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CZ7">
         <v>100</v>
@@ -1676,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="DH7">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="DI7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="DJ7">
         <v>100</v>
@@ -1691,25 +2699,25 @@
         <v>100</v>
       </c>
       <c r="DM7">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="DN7">
         <v>100</v>
       </c>
       <c r="DO7">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="DP7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="DQ7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="DR7">
         <v>1</v>
       </c>
       <c r="DS7">
-        <v>98591248</v>
+        <v>89184992</v>
       </c>
       <c r="DV7">
         <v>100</v>
@@ -1733,27 +2741,27 @@
         <v>100</v>
       </c>
       <c r="FQ7">
-        <v>75435</v>
+        <v>75411</v>
       </c>
       <c r="FR7">
         <v>100</v>
       </c>
       <c r="FS7" s="2">
-        <v>121926000000</v>
+        <v>123570000000</v>
       </c>
       <c r="FT7">
         <v>100</v>
       </c>
       <c r="FU7" s="2">
-        <v>565612000000</v>
+        <v>544601000000</v>
       </c>
     </row>
-    <row r="8" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45658</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1774,19 +2782,19 @@
         <v>1028</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M8">
-        <v>159316120</v>
+        <v>98591248</v>
       </c>
       <c r="P8">
         <v>84</v>
@@ -1798,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="S8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="T8">
         <v>100</v>
@@ -1807,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="W8">
-        <v>160911259</v>
+        <v>4175340044</v>
       </c>
       <c r="Z8">
         <v>14</v>
       </c>
       <c r="AA8">
-        <v>75441</v>
+        <v>75461</v>
       </c>
       <c r="AB8">
         <v>100</v>
@@ -1828,7 +2836,7 @@
         <v>100</v>
       </c>
       <c r="AG8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="CZ8">
         <v>100</v>
@@ -1855,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="DH8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="DI8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DJ8">
         <v>100</v>
@@ -1870,25 +2878,25 @@
         <v>100</v>
       </c>
       <c r="DM8">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="DN8">
         <v>100</v>
       </c>
       <c r="DO8">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="DP8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DQ8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DR8">
         <v>1</v>
       </c>
       <c r="DS8">
-        <v>159316120</v>
+        <v>98591248</v>
       </c>
       <c r="DV8">
         <v>100</v>
@@ -1912,27 +2920,27 @@
         <v>100</v>
       </c>
       <c r="FQ8">
-        <v>75414</v>
+        <v>75435</v>
       </c>
       <c r="FR8">
         <v>100</v>
       </c>
       <c r="FS8" s="2">
-        <v>125730000000</v>
+        <v>121926000000</v>
       </c>
       <c r="FT8">
         <v>100</v>
       </c>
       <c r="FU8" s="2">
-        <v>517466000000</v>
+        <v>565612000000</v>
       </c>
     </row>
-    <row r="9" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45658</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1953,19 +2961,19 @@
         <v>1028</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M9">
-        <v>99007088</v>
+        <v>159316120</v>
       </c>
       <c r="P9">
         <v>84</v>
@@ -1977,25 +2985,25 @@
         <v>100</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <v>100</v>
       </c>
       <c r="U9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W9">
-        <v>284591654</v>
+        <v>160911259</v>
       </c>
       <c r="Z9">
         <v>14</v>
       </c>
       <c r="AA9">
-        <v>75459</v>
+        <v>75441</v>
       </c>
       <c r="AB9">
         <v>100</v>
@@ -2007,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="AG9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="CZ9">
         <v>100</v>
@@ -2034,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="DH9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="DI9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="DJ9">
         <v>100</v>
@@ -2049,25 +3057,25 @@
         <v>100</v>
       </c>
       <c r="DM9">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="DN9">
         <v>100</v>
       </c>
       <c r="DO9">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="DP9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="DQ9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="DR9">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="DS9">
-        <v>99007088</v>
+        <v>159316120</v>
       </c>
       <c r="DV9">
         <v>100</v>
@@ -2091,27 +3099,27 @@
         <v>100</v>
       </c>
       <c r="FQ9">
-        <v>75433</v>
+        <v>75414</v>
       </c>
       <c r="FR9">
         <v>100</v>
       </c>
       <c r="FS9" s="2">
-        <v>124156000000</v>
+        <v>125730000000</v>
       </c>
       <c r="FT9">
         <v>100</v>
       </c>
       <c r="FU9" s="2">
-        <v>514074000000</v>
+        <v>517466000000</v>
       </c>
     </row>
-    <row r="10" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45658</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -2132,19 +3140,19 @@
         <v>1028</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M10">
-        <v>49092336</v>
+        <v>99007088</v>
       </c>
       <c r="P10">
         <v>84</v>
@@ -2156,25 +3164,25 @@
         <v>100</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T10">
         <v>100</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V10">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W10">
-        <v>536359124</v>
+        <v>284591654</v>
       </c>
       <c r="Z10">
         <v>14</v>
       </c>
       <c r="AA10">
-        <v>75436</v>
+        <v>75459</v>
       </c>
       <c r="AB10">
         <v>100</v>
@@ -2186,7 +3194,7 @@
         <v>100</v>
       </c>
       <c r="AG10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CZ10">
         <v>100</v>
@@ -2213,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="DH10">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="DI10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="DJ10">
         <v>100</v>
@@ -2228,25 +3236,25 @@
         <v>100</v>
       </c>
       <c r="DM10">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="DN10">
         <v>100</v>
       </c>
       <c r="DO10">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="DP10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="DQ10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="DR10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="DS10">
-        <v>49092336</v>
+        <v>99007088</v>
       </c>
       <c r="DV10">
         <v>100</v>
@@ -2270,27 +3278,27 @@
         <v>100</v>
       </c>
       <c r="FQ10">
-        <v>75411</v>
+        <v>75433</v>
       </c>
       <c r="FR10">
         <v>100</v>
       </c>
       <c r="FS10" s="2">
-        <v>122414000000</v>
+        <v>124156000000</v>
       </c>
       <c r="FT10">
         <v>100</v>
       </c>
       <c r="FU10" s="2">
-        <v>574534000000</v>
+        <v>514074000000</v>
       </c>
     </row>
-    <row r="11" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45658</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2311,10 +3319,10 @@
         <v>1028</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -2323,7 +3331,7 @@
         <v>77</v>
       </c>
       <c r="M11">
-        <v>50840512</v>
+        <v>49092336</v>
       </c>
       <c r="P11">
         <v>84</v>
@@ -2344,16 +3352,16 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W11">
-        <v>4250607800</v>
+        <v>536359124</v>
       </c>
       <c r="Z11">
         <v>14</v>
       </c>
       <c r="AA11">
-        <v>75457</v>
+        <v>75436</v>
       </c>
       <c r="AB11">
         <v>100</v>
@@ -2392,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="DH11">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="DI11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="DJ11">
         <v>100</v>
@@ -2407,25 +3415,25 @@
         <v>100</v>
       </c>
       <c r="DM11">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="DN11">
         <v>100</v>
       </c>
       <c r="DO11">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="DP11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="DQ11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="DR11">
         <v>1</v>
       </c>
       <c r="DS11">
-        <v>50840512</v>
+        <v>49092336</v>
       </c>
       <c r="DV11">
         <v>100</v>
@@ -2449,27 +3457,27 @@
         <v>100</v>
       </c>
       <c r="FQ11">
-        <v>75434</v>
+        <v>75411</v>
       </c>
       <c r="FR11">
         <v>100</v>
       </c>
       <c r="FS11" s="2">
-        <v>123159000000</v>
+        <v>122414000000</v>
       </c>
       <c r="FT11">
         <v>100</v>
       </c>
       <c r="FU11" s="2">
-        <v>500264000000</v>
+        <v>574534000000</v>
       </c>
     </row>
-    <row r="12" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45658</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -2490,19 +3498,19 @@
         <v>1028</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M12">
-        <v>11605256</v>
+        <v>50840512</v>
       </c>
       <c r="P12">
         <v>84</v>
@@ -2514,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T12">
         <v>100</v>
@@ -2523,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="W12">
-        <v>131873447</v>
+        <v>4250607800</v>
       </c>
       <c r="Z12">
         <v>14</v>
       </c>
       <c r="AA12">
-        <v>75455</v>
+        <v>75457</v>
       </c>
       <c r="AB12">
         <v>100</v>
@@ -2544,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="AG12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ12">
         <v>100</v>
@@ -2571,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="DH12">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="DI12">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="DJ12">
         <v>100</v>
@@ -2586,25 +3594,25 @@
         <v>100</v>
       </c>
       <c r="DM12">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="DN12">
         <v>100</v>
       </c>
       <c r="DO12">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="DP12">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="DQ12">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="DR12">
         <v>1</v>
       </c>
       <c r="DS12">
-        <v>11605256</v>
+        <v>50840512</v>
       </c>
       <c r="DV12">
         <v>100</v>
@@ -2628,27 +3636,27 @@
         <v>100</v>
       </c>
       <c r="FQ12">
-        <v>75432</v>
+        <v>75434</v>
       </c>
       <c r="FR12">
         <v>100</v>
       </c>
       <c r="FS12" s="2">
-        <v>125123000000</v>
+        <v>123159000000</v>
       </c>
       <c r="FT12">
         <v>100</v>
       </c>
       <c r="FU12" s="2">
-        <v>529919000000</v>
+        <v>500264000000</v>
       </c>
     </row>
-    <row r="13" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45658</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -2669,22 +3677,22 @@
         <v>1028</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>151863272</v>
+        <v>11605256</v>
       </c>
       <c r="P13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2702,16 +3710,16 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="W13">
-        <v>3782897263</v>
+        <v>131873447</v>
       </c>
       <c r="Z13">
         <v>14</v>
       </c>
       <c r="AA13">
-        <v>75436</v>
+        <v>75455</v>
       </c>
       <c r="AB13">
         <v>100</v>
@@ -2750,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="DH13">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="DI13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DJ13">
         <v>100</v>
@@ -2765,25 +3773,25 @@
         <v>100</v>
       </c>
       <c r="DM13">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="DN13">
         <v>100</v>
       </c>
       <c r="DO13">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="DP13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DQ13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DR13">
         <v>1</v>
       </c>
       <c r="DS13">
-        <v>151863272</v>
+        <v>11605256</v>
       </c>
       <c r="DV13">
         <v>100</v>
@@ -2807,27 +3815,27 @@
         <v>100</v>
       </c>
       <c r="FQ13">
-        <v>75413</v>
+        <v>75432</v>
       </c>
       <c r="FR13">
         <v>100</v>
       </c>
       <c r="FS13" s="2">
-        <v>122709000000</v>
+        <v>125123000000</v>
       </c>
       <c r="FT13">
         <v>100</v>
       </c>
       <c r="FU13" s="2">
-        <v>496477000000</v>
+        <v>529919000000</v>
       </c>
     </row>
-    <row r="14" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45658</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2848,22 +3856,22 @@
         <v>1028</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>30238240</v>
+        <v>151863272</v>
       </c>
       <c r="P14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2872,7 +3880,7 @@
         <v>100</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14">
         <v>100</v>
@@ -2881,16 +3889,16 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W14">
-        <v>3123005156</v>
+        <v>3782897263</v>
       </c>
       <c r="Z14">
         <v>14</v>
       </c>
       <c r="AA14">
-        <v>75439</v>
+        <v>75436</v>
       </c>
       <c r="AB14">
         <v>100</v>
@@ -2902,7 +3910,7 @@
         <v>100</v>
       </c>
       <c r="AG14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CZ14">
         <v>100</v>
@@ -2929,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="DH14">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="DI14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="DJ14">
         <v>100</v>
@@ -2944,25 +3952,25 @@
         <v>100</v>
       </c>
       <c r="DM14">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="DN14">
         <v>100</v>
       </c>
       <c r="DO14">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="DP14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="DQ14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="DR14">
         <v>1</v>
       </c>
       <c r="DS14">
-        <v>30238240</v>
+        <v>151863272</v>
       </c>
       <c r="DV14">
         <v>100</v>
@@ -2992,21 +4000,21 @@
         <v>100</v>
       </c>
       <c r="FS14" s="2">
-        <v>121982000000</v>
+        <v>122709000000</v>
       </c>
       <c r="FT14">
         <v>100</v>
       </c>
       <c r="FU14" s="2">
-        <v>486586000000</v>
+        <v>496477000000</v>
       </c>
     </row>
-    <row r="15" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45658</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -3027,19 +4035,19 @@
         <v>1028</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>236212328</v>
+        <v>30238240</v>
       </c>
       <c r="P15">
         <v>84</v>
@@ -3051,7 +4059,7 @@
         <v>100</v>
       </c>
       <c r="S15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T15">
         <v>100</v>
@@ -3060,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="W15">
-        <v>544039190</v>
+        <v>3123005156</v>
       </c>
       <c r="Z15">
         <v>14</v>
       </c>
       <c r="AA15">
-        <v>75438</v>
+        <v>75439</v>
       </c>
       <c r="AB15">
         <v>100</v>
@@ -3081,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="AG15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="CZ15">
         <v>100</v>
@@ -3123,13 +4131,13 @@
         <v>100</v>
       </c>
       <c r="DM15">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="DN15">
         <v>100</v>
       </c>
       <c r="DO15">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="DP15">
         <v>30</v>
@@ -3141,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="DS15">
-        <v>236212328</v>
+        <v>30238240</v>
       </c>
       <c r="DV15">
         <v>100</v>
@@ -3165,27 +4173,27 @@
         <v>100</v>
       </c>
       <c r="FQ15">
-        <v>75412</v>
+        <v>75413</v>
       </c>
       <c r="FR15">
         <v>100</v>
       </c>
       <c r="FS15" s="2">
-        <v>125984000000</v>
+        <v>121982000000</v>
       </c>
       <c r="FT15">
         <v>100</v>
       </c>
       <c r="FU15" s="2">
-        <v>487061000000</v>
+        <v>486586000000</v>
       </c>
     </row>
-    <row r="16" spans="1:177" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:197" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45658</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -3206,10 +4214,10 @@
         <v>1028</v>
       </c>
       <c r="I16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -3218,7 +4226,7 @@
         <v>84</v>
       </c>
       <c r="M16">
-        <v>236401728</v>
+        <v>236212328</v>
       </c>
       <c r="P16">
         <v>84</v>
@@ -3230,7 +4238,7 @@
         <v>100</v>
       </c>
       <c r="S16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T16">
         <v>100</v>
@@ -3239,16 +4247,16 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W16">
-        <v>4208729039</v>
+        <v>544039190</v>
       </c>
       <c r="Z16">
         <v>14</v>
       </c>
       <c r="AA16">
-        <v>75436</v>
+        <v>75438</v>
       </c>
       <c r="AB16">
         <v>100</v>
@@ -3260,7 +4268,7 @@
         <v>100</v>
       </c>
       <c r="AG16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CZ16">
         <v>100</v>
@@ -3287,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="DH16">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="DI16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DJ16">
         <v>100</v>
@@ -3302,25 +4310,25 @@
         <v>100</v>
       </c>
       <c r="DM16">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="DN16">
         <v>100</v>
       </c>
       <c r="DO16">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="DP16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DQ16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DR16">
         <v>1</v>
       </c>
       <c r="DS16">
-        <v>236401728</v>
+        <v>236212328</v>
       </c>
       <c r="DV16">
         <v>100</v>
@@ -3344,19 +4352,19 @@
         <v>100</v>
       </c>
       <c r="FQ16">
-        <v>75397</v>
+        <v>75412</v>
       </c>
       <c r="FR16">
         <v>100</v>
       </c>
       <c r="FS16" s="2">
-        <v>123184000000</v>
+        <v>125984000000</v>
       </c>
       <c r="FT16">
         <v>100</v>
       </c>
       <c r="FU16" s="2">
-        <v>502287000000</v>
+        <v>487061000000</v>
       </c>
     </row>
     <row r="17" spans="1:177" x14ac:dyDescent="0.3">
@@ -3364,7 +4372,7 @@
         <v>45658</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -3385,10 +4393,10 @@
         <v>1028</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -3397,7 +4405,7 @@
         <v>84</v>
       </c>
       <c r="M17">
-        <v>229983288</v>
+        <v>236401728</v>
       </c>
       <c r="P17">
         <v>84</v>
@@ -3409,7 +4417,7 @@
         <v>100</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T17">
         <v>100</v>
@@ -3418,16 +4426,16 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="W17">
-        <v>645570932</v>
+        <v>4208729039</v>
       </c>
       <c r="Z17">
         <v>14</v>
       </c>
       <c r="AA17">
-        <v>75431</v>
+        <v>75436</v>
       </c>
       <c r="AB17">
         <v>100</v>
@@ -3439,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="AG17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="CZ17">
         <v>100</v>
@@ -3466,10 +4474,10 @@
         <v>0</v>
       </c>
       <c r="DH17">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="DI17">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="DJ17">
         <v>100</v>
@@ -3487,19 +4495,19 @@
         <v>100</v>
       </c>
       <c r="DO17">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="DP17">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="DQ17">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="DR17">
         <v>1</v>
       </c>
       <c r="DS17">
-        <v>229983288</v>
+        <v>236401728</v>
       </c>
       <c r="DV17">
         <v>100</v>
@@ -3523,19 +4531,19 @@
         <v>100</v>
       </c>
       <c r="FQ17">
-        <v>75408</v>
+        <v>75397</v>
       </c>
       <c r="FR17">
         <v>100</v>
       </c>
       <c r="FS17" s="2">
-        <v>123652000000</v>
+        <v>123184000000</v>
       </c>
       <c r="FT17">
         <v>100</v>
       </c>
       <c r="FU17" s="2">
-        <v>519565000000</v>
+        <v>502287000000</v>
       </c>
     </row>
     <row r="18" spans="1:177" x14ac:dyDescent="0.3">
@@ -3543,7 +4551,7 @@
         <v>45658</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3564,19 +4572,19 @@
         <v>1028</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M18">
-        <v>212428608</v>
+        <v>229983288</v>
       </c>
       <c r="P18">
         <v>84</v>
@@ -3588,25 +4596,25 @@
         <v>100</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
       <c r="U18">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="W18">
-        <v>144075780</v>
+        <v>645570932</v>
       </c>
       <c r="Z18">
         <v>14</v>
       </c>
       <c r="AA18">
-        <v>75445</v>
+        <v>75431</v>
       </c>
       <c r="AB18">
         <v>100</v>
@@ -3618,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="AG18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CZ18">
         <v>100</v>
@@ -3645,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="DH18">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="DI18">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="DJ18">
         <v>100</v>
@@ -3660,25 +4668,25 @@
         <v>100</v>
       </c>
       <c r="DM18">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="DN18">
         <v>100</v>
       </c>
       <c r="DO18">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="DP18">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="DQ18">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="DR18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DS18">
-        <v>212428608</v>
+        <v>229983288</v>
       </c>
       <c r="DV18">
         <v>100</v>
@@ -3702,19 +4710,19 @@
         <v>100</v>
       </c>
       <c r="FQ18">
-        <v>75420</v>
+        <v>75408</v>
       </c>
       <c r="FR18">
         <v>100</v>
       </c>
       <c r="FS18" s="2">
-        <v>121058000000</v>
+        <v>123652000000</v>
       </c>
       <c r="FT18">
         <v>100</v>
       </c>
       <c r="FU18" s="2">
-        <v>558884000000</v>
+        <v>519565000000</v>
       </c>
     </row>
     <row r="19" spans="1:177" x14ac:dyDescent="0.3">
@@ -3722,7 +4730,7 @@
         <v>45658</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -3743,19 +4751,19 @@
         <v>1028</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>70303536</v>
+        <v>212428608</v>
       </c>
       <c r="P19">
         <v>84</v>
@@ -3767,25 +4775,25 @@
         <v>100</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T19">
         <v>100</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="V19">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W19">
-        <v>1594125273</v>
+        <v>144075780</v>
       </c>
       <c r="Z19">
         <v>14</v>
       </c>
       <c r="AA19">
-        <v>75455</v>
+        <v>75445</v>
       </c>
       <c r="AB19">
         <v>100</v>
@@ -3797,7 +4805,7 @@
         <v>100</v>
       </c>
       <c r="AG19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ19">
         <v>100</v>
@@ -3824,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="DH19">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="DI19">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="DJ19">
         <v>100</v>
@@ -3839,25 +4847,25 @@
         <v>100</v>
       </c>
       <c r="DM19">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="DN19">
         <v>100</v>
       </c>
       <c r="DO19">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="DP19">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="DQ19">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="DR19">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="DS19">
-        <v>70303536</v>
+        <v>212428608</v>
       </c>
       <c r="DV19">
         <v>100</v>
@@ -3881,19 +4889,19 @@
         <v>100</v>
       </c>
       <c r="FQ19">
-        <v>75432</v>
+        <v>75420</v>
       </c>
       <c r="FR19">
         <v>100</v>
       </c>
       <c r="FS19" s="2">
-        <v>123322000000</v>
+        <v>121058000000</v>
       </c>
       <c r="FT19">
         <v>100</v>
       </c>
       <c r="FU19" s="2">
-        <v>599915000000</v>
+        <v>558884000000</v>
       </c>
     </row>
     <row r="20" spans="1:177" x14ac:dyDescent="0.3">
@@ -3901,7 +4909,7 @@
         <v>45658</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -3922,22 +4930,22 @@
         <v>1028</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M20">
-        <v>22222272</v>
+        <v>70303536</v>
       </c>
       <c r="P20">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3946,7 +4954,7 @@
         <v>100</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20">
         <v>100</v>
@@ -3955,16 +4963,16 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="W20">
-        <v>415619582</v>
+        <v>1594125273</v>
       </c>
       <c r="Z20">
         <v>14</v>
       </c>
       <c r="AA20">
-        <v>75436</v>
+        <v>75455</v>
       </c>
       <c r="AB20">
         <v>100</v>
@@ -3976,7 +4984,7 @@
         <v>100</v>
       </c>
       <c r="AG20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CZ20">
         <v>100</v>
@@ -4003,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="DH20">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="DI20">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="DJ20">
         <v>100</v>
@@ -4018,25 +5026,25 @@
         <v>100</v>
       </c>
       <c r="DM20">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="DN20">
         <v>100</v>
       </c>
       <c r="DO20">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="DP20">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="DQ20">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="DR20">
         <v>1</v>
       </c>
       <c r="DS20">
-        <v>22222272</v>
+        <v>70303536</v>
       </c>
       <c r="DV20">
         <v>100</v>
@@ -4060,19 +5068,19 @@
         <v>100</v>
       </c>
       <c r="FQ20">
-        <v>75413</v>
+        <v>75432</v>
       </c>
       <c r="FR20">
         <v>100</v>
       </c>
       <c r="FS20" s="2">
-        <v>122447000000</v>
+        <v>123322000000</v>
       </c>
       <c r="FT20">
         <v>100</v>
       </c>
       <c r="FU20" s="2">
-        <v>585527000000</v>
+        <v>599915000000</v>
       </c>
     </row>
     <row r="21" spans="1:177" x14ac:dyDescent="0.3">
@@ -4080,7 +5088,7 @@
         <v>45658</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -4101,22 +5109,22 @@
         <v>1028</v>
       </c>
       <c r="I21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>83634456</v>
+        <v>22222272</v>
       </c>
       <c r="P21">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4125,7 +5133,7 @@
         <v>100</v>
       </c>
       <c r="S21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T21">
         <v>100</v>
@@ -4134,16 +5142,16 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W21">
-        <v>283755361</v>
+        <v>415619582</v>
       </c>
       <c r="Z21">
         <v>14</v>
       </c>
       <c r="AA21">
-        <v>75463</v>
+        <v>75436</v>
       </c>
       <c r="AB21">
         <v>100</v>
@@ -4155,7 +5163,7 @@
         <v>100</v>
       </c>
       <c r="AG21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="CZ21">
         <v>100</v>
@@ -4182,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="DH21">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="DI21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="DJ21">
         <v>100</v>
@@ -4197,25 +5205,25 @@
         <v>100</v>
       </c>
       <c r="DM21">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DN21">
         <v>100</v>
       </c>
       <c r="DO21">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="DP21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="DQ21">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="DR21">
         <v>1</v>
       </c>
       <c r="DS21">
-        <v>83634456</v>
+        <v>22222272</v>
       </c>
       <c r="DV21">
         <v>100</v>
@@ -4239,19 +5247,19 @@
         <v>100</v>
       </c>
       <c r="FQ21">
-        <v>75399</v>
+        <v>75413</v>
       </c>
       <c r="FR21">
         <v>100</v>
       </c>
       <c r="FS21" s="2">
-        <v>122489000000</v>
+        <v>122447000000</v>
       </c>
       <c r="FT21">
         <v>100</v>
       </c>
       <c r="FU21" s="2">
-        <v>561774000000</v>
+        <v>585527000000</v>
       </c>
     </row>
     <row r="22" spans="1:177" x14ac:dyDescent="0.3">
@@ -4259,7 +5267,7 @@
         <v>45658</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -4280,49 +5288,49 @@
         <v>1028</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M22">
-        <v>201323056</v>
+        <v>83634456</v>
       </c>
       <c r="P22">
+        <v>84</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>13</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>85</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>100</v>
-      </c>
-      <c r="S22">
-        <v>27</v>
-      </c>
-      <c r="T22">
-        <v>100</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>95</v>
-      </c>
       <c r="W22">
-        <v>3133563448</v>
+        <v>283755361</v>
       </c>
       <c r="Z22">
         <v>14</v>
       </c>
       <c r="AA22">
-        <v>75437</v>
+        <v>75463</v>
       </c>
       <c r="AB22">
         <v>100</v>
@@ -4334,7 +5342,7 @@
         <v>100</v>
       </c>
       <c r="AG22">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="CZ22">
         <v>100</v>
@@ -4361,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="DH22">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="DI22">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="DJ22">
         <v>100</v>
@@ -4376,25 +5384,25 @@
         <v>100</v>
       </c>
       <c r="DM22">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="DN22">
         <v>100</v>
       </c>
       <c r="DO22">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="DP22">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="DQ22">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="DR22">
         <v>1</v>
       </c>
       <c r="DS22">
-        <v>201323056</v>
+        <v>83634456</v>
       </c>
       <c r="DV22">
         <v>100</v>
@@ -4418,19 +5426,19 @@
         <v>100</v>
       </c>
       <c r="FQ22">
-        <v>75411</v>
+        <v>75399</v>
       </c>
       <c r="FR22">
         <v>100</v>
       </c>
       <c r="FS22" s="2">
-        <v>127736000000</v>
+        <v>122489000000</v>
       </c>
       <c r="FT22">
         <v>100</v>
       </c>
       <c r="FU22" s="2">
-        <v>549437000000</v>
+        <v>561774000000</v>
       </c>
     </row>
     <row r="23" spans="1:177" x14ac:dyDescent="0.3">
@@ -4438,7 +5446,7 @@
         <v>45658</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -4459,22 +5467,22 @@
         <v>1028</v>
       </c>
       <c r="I23">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M23">
-        <v>66187272</v>
+        <v>201323056</v>
       </c>
       <c r="P23">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -4483,7 +5491,7 @@
         <v>100</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="T23">
         <v>100</v>
@@ -4492,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W23">
-        <v>4172311645</v>
+        <v>3133563448</v>
       </c>
       <c r="Z23">
         <v>14</v>
       </c>
       <c r="AA23">
-        <v>75432</v>
+        <v>75437</v>
       </c>
       <c r="AB23">
         <v>100</v>
@@ -4513,7 +5521,7 @@
         <v>100</v>
       </c>
       <c r="AG23">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CZ23">
         <v>100</v>
@@ -4540,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="DH23">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="DI23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DJ23">
         <v>100</v>
@@ -4555,25 +5563,25 @@
         <v>100</v>
       </c>
       <c r="DM23">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="DN23">
         <v>100</v>
       </c>
       <c r="DO23">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="DP23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DQ23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DR23">
         <v>1</v>
       </c>
       <c r="DS23">
-        <v>66187272</v>
+        <v>201323056</v>
       </c>
       <c r="DV23">
         <v>100</v>
@@ -4597,19 +5605,19 @@
         <v>100</v>
       </c>
       <c r="FQ23">
-        <v>75409</v>
+        <v>75411</v>
       </c>
       <c r="FR23">
         <v>100</v>
       </c>
       <c r="FS23" s="2">
-        <v>122286000000</v>
+        <v>127736000000</v>
       </c>
       <c r="FT23">
         <v>100</v>
       </c>
       <c r="FU23" s="2">
-        <v>536758000000</v>
+        <v>549437000000</v>
       </c>
     </row>
     <row r="24" spans="1:177" x14ac:dyDescent="0.3">
@@ -4617,7 +5625,7 @@
         <v>45658</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -4638,22 +5646,22 @@
         <v>1028</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>181992704</v>
+        <v>66187272</v>
       </c>
       <c r="P24">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -4662,7 +5670,7 @@
         <v>100</v>
       </c>
       <c r="S24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T24">
         <v>100</v>
@@ -4671,16 +5679,16 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="W24">
-        <v>647008508</v>
+        <v>4172311645</v>
       </c>
       <c r="Z24">
         <v>14</v>
       </c>
       <c r="AA24">
-        <v>75438</v>
+        <v>75432</v>
       </c>
       <c r="AB24">
         <v>100</v>
@@ -4692,7 +5700,7 @@
         <v>100</v>
       </c>
       <c r="AG24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CZ24">
         <v>100</v>
@@ -4719,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="DH24">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="DI24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="DJ24">
         <v>100</v>
@@ -4734,25 +5742,25 @@
         <v>100</v>
       </c>
       <c r="DM24">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DN24">
         <v>100</v>
       </c>
       <c r="DO24">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="DP24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="DQ24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="DR24">
         <v>1</v>
       </c>
       <c r="DS24">
-        <v>181992704</v>
+        <v>66187272</v>
       </c>
       <c r="DV24">
         <v>100</v>
@@ -4776,19 +5784,19 @@
         <v>100</v>
       </c>
       <c r="FQ24">
-        <v>75412</v>
+        <v>75409</v>
       </c>
       <c r="FR24">
         <v>100</v>
       </c>
       <c r="FS24" s="2">
-        <v>121357000000</v>
+        <v>122286000000</v>
       </c>
       <c r="FT24">
         <v>100</v>
       </c>
       <c r="FU24" s="2">
-        <v>608812000000</v>
+        <v>536758000000</v>
       </c>
     </row>
     <row r="25" spans="1:177" x14ac:dyDescent="0.3">
@@ -4796,7 +5804,7 @@
         <v>45658</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -4817,22 +5825,22 @@
         <v>1028</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M25">
-        <v>61472592</v>
+        <v>181992704</v>
       </c>
       <c r="P25">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -4841,7 +5849,7 @@
         <v>100</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T25">
         <v>100</v>
@@ -4850,16 +5858,16 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="W25">
-        <v>73425552</v>
+        <v>647008508</v>
       </c>
       <c r="Z25">
         <v>14</v>
       </c>
       <c r="AA25">
-        <v>75430</v>
+        <v>75438</v>
       </c>
       <c r="AB25">
         <v>100</v>
@@ -4898,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="DH25">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="DI25">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="DJ25">
         <v>100</v>
@@ -4913,25 +5921,25 @@
         <v>100</v>
       </c>
       <c r="DM25">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="DN25">
         <v>100</v>
       </c>
       <c r="DO25">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="DP25">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="DQ25">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="DR25">
         <v>1</v>
       </c>
       <c r="DS25">
-        <v>61472592</v>
+        <v>181992704</v>
       </c>
       <c r="DV25">
         <v>100</v>
@@ -4955,19 +5963,19 @@
         <v>100</v>
       </c>
       <c r="FQ25">
-        <v>75405</v>
+        <v>75412</v>
       </c>
       <c r="FR25">
         <v>100</v>
       </c>
       <c r="FS25" s="2">
-        <v>128532000000</v>
+        <v>121357000000</v>
       </c>
       <c r="FT25">
         <v>100</v>
       </c>
       <c r="FU25" s="2">
-        <v>506493000000</v>
+        <v>608812000000</v>
       </c>
     </row>
     <row r="26" spans="1:177" x14ac:dyDescent="0.3">
@@ -4975,7 +5983,7 @@
         <v>45658</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -4996,22 +6004,22 @@
         <v>1028</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M26">
-        <v>215757944</v>
+        <v>61472592</v>
       </c>
       <c r="P26">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -5020,7 +6028,7 @@
         <v>100</v>
       </c>
       <c r="S26">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="T26">
         <v>100</v>
@@ -5029,16 +6037,16 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="W26">
-        <v>333772416</v>
+        <v>73425552</v>
       </c>
       <c r="Z26">
         <v>14</v>
       </c>
       <c r="AA26">
-        <v>75458</v>
+        <v>75430</v>
       </c>
       <c r="AB26">
         <v>100</v>
@@ -5050,7 +6058,7 @@
         <v>100</v>
       </c>
       <c r="AG26">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="CZ26">
         <v>100</v>
@@ -5092,13 +6100,13 @@
         <v>100</v>
       </c>
       <c r="DM26">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="DN26">
         <v>100</v>
       </c>
       <c r="DO26">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="DP26">
         <v>31</v>
@@ -5110,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="DS26">
-        <v>215757944</v>
+        <v>61472592</v>
       </c>
       <c r="DV26">
         <v>100</v>
@@ -5134,19 +6142,19 @@
         <v>100</v>
       </c>
       <c r="FQ26">
-        <v>75433</v>
+        <v>75405</v>
       </c>
       <c r="FR26">
         <v>100</v>
       </c>
       <c r="FS26" s="2">
-        <v>125931000000</v>
+        <v>128532000000</v>
       </c>
       <c r="FT26">
         <v>100</v>
       </c>
       <c r="FU26" s="2">
-        <v>538341000000</v>
+        <v>506493000000</v>
       </c>
     </row>
     <row r="27" spans="1:177" x14ac:dyDescent="0.3">
@@ -5154,7 +6162,7 @@
         <v>45658</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -5175,10 +6183,10 @@
         <v>1028</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -5187,10 +6195,10 @@
         <v>83</v>
       </c>
       <c r="M27">
-        <v>223093192</v>
+        <v>215757944</v>
       </c>
       <c r="P27">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -5199,7 +6207,7 @@
         <v>100</v>
       </c>
       <c r="S27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T27">
         <v>100</v>
@@ -5208,16 +6216,16 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="W27">
-        <v>4268660737</v>
+        <v>333772416</v>
       </c>
       <c r="Z27">
         <v>14</v>
       </c>
       <c r="AA27">
-        <v>75438</v>
+        <v>75458</v>
       </c>
       <c r="AB27">
         <v>100</v>
@@ -5229,7 +6237,7 @@
         <v>100</v>
       </c>
       <c r="AG27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CZ27">
         <v>100</v>
@@ -5256,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="DH27">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="DI27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="DJ27">
         <v>100</v>
@@ -5271,25 +6279,25 @@
         <v>100</v>
       </c>
       <c r="DM27">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="DN27">
         <v>100</v>
       </c>
       <c r="DO27">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="DP27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="DQ27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="DR27">
         <v>1</v>
       </c>
       <c r="DS27">
-        <v>223093192</v>
+        <v>215757944</v>
       </c>
       <c r="DV27">
         <v>100</v>
@@ -5313,19 +6321,19 @@
         <v>100</v>
       </c>
       <c r="FQ27">
-        <v>75412</v>
+        <v>75433</v>
       </c>
       <c r="FR27">
         <v>100</v>
       </c>
       <c r="FS27" s="2">
-        <v>122090000000</v>
+        <v>125931000000</v>
       </c>
       <c r="FT27">
         <v>100</v>
       </c>
       <c r="FU27" s="2">
-        <v>463162000000</v>
+        <v>538341000000</v>
       </c>
     </row>
     <row r="28" spans="1:177" x14ac:dyDescent="0.3">
@@ -5333,7 +6341,7 @@
         <v>45658</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -5354,19 +6362,19 @@
         <v>1028</v>
       </c>
       <c r="I28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28">
-        <v>158768248</v>
+        <v>223093192</v>
       </c>
       <c r="P28">
         <v>84</v>
@@ -5378,7 +6386,7 @@
         <v>100</v>
       </c>
       <c r="S28">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="T28">
         <v>100</v>
@@ -5390,13 +6398,13 @@
         <v>96</v>
       </c>
       <c r="W28">
-        <v>4157120847</v>
+        <v>4268660737</v>
       </c>
       <c r="Z28">
         <v>14</v>
       </c>
       <c r="AA28">
-        <v>75458</v>
+        <v>75438</v>
       </c>
       <c r="AB28">
         <v>100</v>
@@ -5408,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="AG28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="CZ28">
         <v>100</v>
@@ -5435,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="DH28">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="DI28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="DJ28">
         <v>100</v>
@@ -5450,25 +6458,25 @@
         <v>100</v>
       </c>
       <c r="DM28">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="DN28">
         <v>100</v>
       </c>
       <c r="DO28">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="DP28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="DQ28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="DR28">
         <v>1</v>
       </c>
       <c r="DS28">
-        <v>158768248</v>
+        <v>223093192</v>
       </c>
       <c r="DV28">
         <v>100</v>
@@ -5492,19 +6500,19 @@
         <v>100</v>
       </c>
       <c r="FQ28">
-        <v>75395</v>
+        <v>75412</v>
       </c>
       <c r="FR28">
         <v>100</v>
       </c>
       <c r="FS28" s="2">
-        <v>124262000000</v>
+        <v>122090000000</v>
       </c>
       <c r="FT28">
         <v>100</v>
       </c>
       <c r="FU28" s="2">
-        <v>520576000000</v>
+        <v>463162000000</v>
       </c>
     </row>
     <row r="29" spans="1:177" x14ac:dyDescent="0.3">
@@ -5512,7 +6520,7 @@
         <v>45658</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -5533,19 +6541,19 @@
         <v>1028</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>204259440</v>
+        <v>158768248</v>
       </c>
       <c r="P29">
         <v>84</v>
@@ -5557,7 +6565,7 @@
         <v>100</v>
       </c>
       <c r="S29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T29">
         <v>100</v>
@@ -5566,16 +6574,16 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="W29">
-        <v>497612354</v>
+        <v>4157120847</v>
       </c>
       <c r="Z29">
         <v>14</v>
       </c>
       <c r="AA29">
-        <v>75454</v>
+        <v>75458</v>
       </c>
       <c r="AB29">
         <v>100</v>
@@ -5587,7 +6595,7 @@
         <v>100</v>
       </c>
       <c r="AG29">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="CZ29">
         <v>100</v>
@@ -5605,7 +6613,7 @@
         <v>100</v>
       </c>
       <c r="DE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29">
         <v>100</v>
@@ -5614,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="DH29">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="DI29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="DJ29">
         <v>100</v>
@@ -5629,25 +6637,25 @@
         <v>100</v>
       </c>
       <c r="DM29">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="DN29">
         <v>100</v>
       </c>
       <c r="DO29">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="DP29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="DQ29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="DR29">
         <v>1</v>
       </c>
       <c r="DS29">
-        <v>204259440</v>
+        <v>158768248</v>
       </c>
       <c r="DV29">
         <v>100</v>
@@ -5671,19 +6679,19 @@
         <v>100</v>
       </c>
       <c r="FQ29">
-        <v>75430</v>
+        <v>75395</v>
       </c>
       <c r="FR29">
         <v>100</v>
       </c>
       <c r="FS29" s="2">
-        <v>122712000000</v>
+        <v>124262000000</v>
       </c>
       <c r="FT29">
         <v>100</v>
       </c>
       <c r="FU29" s="2">
-        <v>556482000000</v>
+        <v>520576000000</v>
       </c>
     </row>
     <row r="30" spans="1:177" x14ac:dyDescent="0.3">
@@ -5691,7 +6699,7 @@
         <v>45658</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -5712,19 +6720,19 @@
         <v>1028</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>122787880</v>
+        <v>204259440</v>
       </c>
       <c r="P30">
         <v>84</v>
@@ -5745,16 +6753,16 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W30">
-        <v>4084352691</v>
+        <v>497612354</v>
       </c>
       <c r="Z30">
         <v>14</v>
       </c>
       <c r="AA30">
-        <v>75462</v>
+        <v>75454</v>
       </c>
       <c r="AB30">
         <v>100</v>
@@ -5784,7 +6792,7 @@
         <v>100</v>
       </c>
       <c r="DE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF30">
         <v>100</v>
@@ -5793,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="DH30">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DI30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DJ30">
         <v>100</v>
@@ -5808,25 +6816,25 @@
         <v>100</v>
       </c>
       <c r="DM30">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="DN30">
         <v>100</v>
       </c>
       <c r="DO30">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="DP30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DQ30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DR30">
         <v>1</v>
       </c>
       <c r="DS30">
-        <v>122787880</v>
+        <v>204259440</v>
       </c>
       <c r="DV30">
         <v>100</v>
@@ -5850,19 +6858,19 @@
         <v>100</v>
       </c>
       <c r="FQ30">
-        <v>75439</v>
+        <v>75430</v>
       </c>
       <c r="FR30">
         <v>100</v>
       </c>
       <c r="FS30" s="2">
-        <v>125346000000</v>
+        <v>122712000000</v>
       </c>
       <c r="FT30">
         <v>100</v>
       </c>
       <c r="FU30" s="2">
-        <v>515962000000</v>
+        <v>556482000000</v>
       </c>
     </row>
     <row r="31" spans="1:177" x14ac:dyDescent="0.3">
@@ -5870,7 +6878,7 @@
         <v>45658</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -5891,22 +6899,22 @@
         <v>1028</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M31">
-        <v>33747304</v>
+        <v>122787880</v>
       </c>
       <c r="P31">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5915,7 +6923,7 @@
         <v>100</v>
       </c>
       <c r="S31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T31">
         <v>100</v>
@@ -5927,13 +6935,13 @@
         <v>96</v>
       </c>
       <c r="W31">
-        <v>4045932446</v>
+        <v>4084352691</v>
       </c>
       <c r="Z31">
         <v>14</v>
       </c>
       <c r="AA31">
-        <v>75442</v>
+        <v>75462</v>
       </c>
       <c r="AB31">
         <v>100</v>
@@ -5945,7 +6953,7 @@
         <v>100</v>
       </c>
       <c r="AG31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CZ31">
         <v>100</v>
@@ -5972,10 +6980,10 @@
         <v>0</v>
       </c>
       <c r="DH31">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="DI31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="DJ31">
         <v>100</v>
@@ -5987,25 +6995,25 @@
         <v>100</v>
       </c>
       <c r="DM31">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="DN31">
         <v>100</v>
       </c>
       <c r="DO31">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="DP31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="DQ31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="DR31">
         <v>1</v>
       </c>
       <c r="DS31">
-        <v>33747304</v>
+        <v>122787880</v>
       </c>
       <c r="DV31">
         <v>100</v>
@@ -6029,19 +7037,19 @@
         <v>100</v>
       </c>
       <c r="FQ31">
-        <v>75417</v>
+        <v>75439</v>
       </c>
       <c r="FR31">
         <v>100</v>
       </c>
       <c r="FS31" s="2">
-        <v>122035000000</v>
+        <v>125346000000</v>
       </c>
       <c r="FT31">
         <v>100</v>
       </c>
       <c r="FU31" s="2">
-        <v>552012000000</v>
+        <v>515962000000</v>
       </c>
     </row>
     <row r="32" spans="1:177" x14ac:dyDescent="0.3">
@@ -6049,7 +7057,7 @@
         <v>45658</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -6070,22 +7078,22 @@
         <v>1028</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M32">
-        <v>208875744</v>
+        <v>33747304</v>
       </c>
       <c r="P32">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -6094,7 +7102,7 @@
         <v>100</v>
       </c>
       <c r="S32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T32">
         <v>100</v>
@@ -6106,13 +7114,13 @@
         <v>96</v>
       </c>
       <c r="W32">
-        <v>3743836866</v>
+        <v>4045932446</v>
       </c>
       <c r="Z32">
         <v>14</v>
       </c>
       <c r="AA32">
-        <v>75438</v>
+        <v>75442</v>
       </c>
       <c r="AB32">
         <v>100</v>
@@ -6151,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="DH32">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="DI32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="DJ32">
         <v>100</v>
@@ -6166,25 +7174,25 @@
         <v>100</v>
       </c>
       <c r="DM32">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="DN32">
         <v>100</v>
       </c>
       <c r="DO32">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="DP32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="DQ32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="DR32">
         <v>1</v>
       </c>
       <c r="DS32">
-        <v>208875744</v>
+        <v>33747304</v>
       </c>
       <c r="DV32">
         <v>100</v>
@@ -6208,19 +7216,19 @@
         <v>100</v>
       </c>
       <c r="FQ32">
-        <v>75414</v>
+        <v>75417</v>
       </c>
       <c r="FR32">
         <v>100</v>
       </c>
       <c r="FS32" s="2">
-        <v>121531000000</v>
+        <v>122035000000</v>
       </c>
       <c r="FT32">
         <v>100</v>
       </c>
       <c r="FU32" s="2">
-        <v>515394000000</v>
+        <v>552012000000</v>
       </c>
     </row>
     <row r="33" spans="1:177" x14ac:dyDescent="0.3">
@@ -6228,7 +7236,7 @@
         <v>45658</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -6249,22 +7257,22 @@
         <v>1028</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M33">
-        <v>58958392</v>
+        <v>208875744</v>
       </c>
       <c r="P33">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6273,7 +7281,7 @@
         <v>100</v>
       </c>
       <c r="S33">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T33">
         <v>100</v>
@@ -6282,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W33">
-        <v>327686063</v>
+        <v>3743836866</v>
       </c>
       <c r="Z33">
         <v>14</v>
@@ -6303,7 +7311,7 @@
         <v>100</v>
       </c>
       <c r="AG33">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="CZ33">
         <v>100</v>
@@ -6330,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="DH33">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="DI33">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="DJ33">
         <v>100</v>
@@ -6345,25 +7353,25 @@
         <v>100</v>
       </c>
       <c r="DM33">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="DN33">
         <v>100</v>
       </c>
       <c r="DO33">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="DP33">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="DQ33">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="DR33">
         <v>1</v>
       </c>
       <c r="DS33">
-        <v>58958392</v>
+        <v>208875744</v>
       </c>
       <c r="DV33">
         <v>100</v>
@@ -6387,19 +7395,19 @@
         <v>100</v>
       </c>
       <c r="FQ33">
-        <v>75415</v>
+        <v>75414</v>
       </c>
       <c r="FR33">
         <v>100</v>
       </c>
       <c r="FS33" s="2">
-        <v>128536000000</v>
+        <v>121531000000</v>
       </c>
       <c r="FT33">
         <v>100</v>
       </c>
       <c r="FU33" s="2">
-        <v>521024000000</v>
+        <v>515394000000</v>
       </c>
     </row>
     <row r="34" spans="1:177" x14ac:dyDescent="0.3">
@@ -6407,7 +7415,7 @@
         <v>45658</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -6428,19 +7436,19 @@
         <v>1028</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M34">
-        <v>14546816</v>
+        <v>58958392</v>
       </c>
       <c r="P34">
         <v>84</v>
@@ -6452,7 +7460,7 @@
         <v>100</v>
       </c>
       <c r="S34">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T34">
         <v>100</v>
@@ -6461,16 +7469,16 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="W34">
-        <v>5721213</v>
+        <v>327686063</v>
       </c>
       <c r="Z34">
         <v>14</v>
       </c>
       <c r="AA34">
-        <v>75464</v>
+        <v>75438</v>
       </c>
       <c r="AB34">
         <v>100</v>
@@ -6482,7 +7490,7 @@
         <v>100</v>
       </c>
       <c r="AG34">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CZ34">
         <v>100</v>
@@ -6509,10 +7517,10 @@
         <v>0</v>
       </c>
       <c r="DH34">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DI34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DJ34">
         <v>100</v>
@@ -6524,25 +7532,25 @@
         <v>100</v>
       </c>
       <c r="DM34">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="DN34">
         <v>100</v>
       </c>
       <c r="DO34">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="DP34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DQ34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DR34">
         <v>1</v>
       </c>
       <c r="DS34">
-        <v>14546816</v>
+        <v>58958392</v>
       </c>
       <c r="DV34">
         <v>100</v>
@@ -6566,19 +7574,19 @@
         <v>100</v>
       </c>
       <c r="FQ34">
-        <v>75440</v>
+        <v>75415</v>
       </c>
       <c r="FR34">
         <v>100</v>
       </c>
       <c r="FS34" s="2">
-        <v>125844000000</v>
+        <v>128536000000</v>
       </c>
       <c r="FT34">
         <v>100</v>
       </c>
       <c r="FU34" s="2">
-        <v>503534000000</v>
+        <v>521024000000</v>
       </c>
     </row>
     <row r="35" spans="1:177" x14ac:dyDescent="0.3">
@@ -6586,7 +7594,7 @@
         <v>45658</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -6607,22 +7615,22 @@
         <v>1028</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M35">
-        <v>134905232</v>
+        <v>14546816</v>
       </c>
       <c r="P35">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -6631,7 +7639,7 @@
         <v>100</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T35">
         <v>100</v>
@@ -6640,16 +7648,16 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="W35">
-        <v>8326882086</v>
+        <v>5721213</v>
       </c>
       <c r="Z35">
         <v>14</v>
       </c>
       <c r="AA35">
-        <v>75436</v>
+        <v>75464</v>
       </c>
       <c r="AB35">
         <v>100</v>
@@ -6661,7 +7669,7 @@
         <v>100</v>
       </c>
       <c r="AG35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CZ35">
         <v>100</v>
@@ -6688,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="DH35">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="DI35">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DJ35">
         <v>100</v>
@@ -6703,25 +7711,25 @@
         <v>100</v>
       </c>
       <c r="DM35">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="DN35">
         <v>100</v>
       </c>
       <c r="DO35">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="DP35">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DQ35">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="DR35">
         <v>1</v>
       </c>
       <c r="DS35">
-        <v>134905232</v>
+        <v>14546816</v>
       </c>
       <c r="DV35">
         <v>100</v>
@@ -6745,19 +7753,19 @@
         <v>100</v>
       </c>
       <c r="FQ35">
-        <v>75407</v>
+        <v>75440</v>
       </c>
       <c r="FR35">
         <v>100</v>
       </c>
       <c r="FS35" s="2">
-        <v>124413000000</v>
+        <v>125844000000</v>
       </c>
       <c r="FT35">
         <v>100</v>
       </c>
       <c r="FU35" s="2">
-        <v>498087000000</v>
+        <v>503534000000</v>
       </c>
     </row>
     <row r="36" spans="1:177" x14ac:dyDescent="0.3">
@@ -6765,7 +7773,7 @@
         <v>45658</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -6789,7 +7797,7 @@
         <v>11</v>
       </c>
       <c r="J36">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -6798,7 +7806,7 @@
         <v>81</v>
       </c>
       <c r="M36">
-        <v>136910376</v>
+        <v>134905232</v>
       </c>
       <c r="P36">
         <v>88</v>
@@ -6822,13 +7830,13 @@
         <v>96</v>
       </c>
       <c r="W36">
-        <v>4004007206</v>
+        <v>8326882086</v>
       </c>
       <c r="Z36">
         <v>14</v>
       </c>
       <c r="AA36">
-        <v>75433</v>
+        <v>75436</v>
       </c>
       <c r="AB36">
         <v>100</v>
@@ -6882,13 +7890,13 @@
         <v>100</v>
       </c>
       <c r="DM36">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="DN36">
         <v>100</v>
       </c>
       <c r="DO36">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="DP36">
         <v>33</v>
@@ -6900,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="DS36">
-        <v>136910376</v>
+        <v>134905232</v>
       </c>
       <c r="DV36">
         <v>100</v>
@@ -6924,19 +7932,19 @@
         <v>100</v>
       </c>
       <c r="FQ36">
-        <v>75409</v>
+        <v>75407</v>
       </c>
       <c r="FR36">
         <v>100</v>
       </c>
       <c r="FS36" s="2">
-        <v>122050000000</v>
+        <v>124413000000</v>
       </c>
       <c r="FT36">
         <v>100</v>
       </c>
       <c r="FU36" s="2">
-        <v>489608000000</v>
+        <v>498087000000</v>
       </c>
     </row>
     <row r="37" spans="1:177" x14ac:dyDescent="0.3">
@@ -6944,7 +7952,7 @@
         <v>45658</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -6965,22 +7973,22 @@
         <v>1028</v>
       </c>
       <c r="I37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M37">
-        <v>161047024</v>
+        <v>136910376</v>
       </c>
       <c r="P37">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -6989,7 +7997,7 @@
         <v>100</v>
       </c>
       <c r="S37">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>100</v>
@@ -6998,16 +8006,16 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="W37">
-        <v>151421039</v>
+        <v>4004007206</v>
       </c>
       <c r="Z37">
         <v>14</v>
       </c>
       <c r="AA37">
-        <v>75443</v>
+        <v>75433</v>
       </c>
       <c r="AB37">
         <v>100</v>
@@ -7019,7 +8027,7 @@
         <v>100</v>
       </c>
       <c r="AG37">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="CZ37">
         <v>100</v>
@@ -7046,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="DH37">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="DI37">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="DJ37">
         <v>100</v>
@@ -7061,25 +8069,25 @@
         <v>100</v>
       </c>
       <c r="DM37">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="DN37">
         <v>100</v>
       </c>
       <c r="DO37">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="DP37">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="DQ37">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="DR37">
         <v>1</v>
       </c>
       <c r="DS37">
-        <v>161047024</v>
+        <v>136910376</v>
       </c>
       <c r="DV37">
         <v>100</v>
@@ -7103,19 +8111,19 @@
         <v>100</v>
       </c>
       <c r="FQ37">
-        <v>75421</v>
+        <v>75409</v>
       </c>
       <c r="FR37">
         <v>100</v>
       </c>
       <c r="FS37" s="2">
-        <v>125270000000</v>
+        <v>122050000000</v>
       </c>
       <c r="FT37">
         <v>100</v>
       </c>
       <c r="FU37" s="2">
-        <v>529687000000</v>
+        <v>489608000000</v>
       </c>
     </row>
     <row r="38" spans="1:177" x14ac:dyDescent="0.3">
@@ -7123,7 +8131,7 @@
         <v>45658</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -7144,10 +8152,10 @@
         <v>1028</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -7156,7 +8164,7 @@
         <v>82</v>
       </c>
       <c r="M38">
-        <v>160702328</v>
+        <v>161047024</v>
       </c>
       <c r="P38">
         <v>84</v>
@@ -7168,7 +8176,7 @@
         <v>100</v>
       </c>
       <c r="S38">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="T38">
         <v>100</v>
@@ -7177,16 +8185,16 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W38">
-        <v>332304536</v>
+        <v>151421039</v>
       </c>
       <c r="Z38">
         <v>14</v>
       </c>
       <c r="AA38">
-        <v>75377</v>
+        <v>75443</v>
       </c>
       <c r="AB38">
         <v>100</v>
@@ -7198,7 +8206,7 @@
         <v>100</v>
       </c>
       <c r="AG38">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="CZ38">
         <v>100</v>
@@ -7225,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="DH38">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="DI38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DJ38">
         <v>100</v>
@@ -7240,25 +8248,25 @@
         <v>100</v>
       </c>
       <c r="DM38">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="DN38">
         <v>100</v>
       </c>
       <c r="DO38">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="DP38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DQ38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DR38">
         <v>1</v>
       </c>
       <c r="DS38">
-        <v>160702328</v>
+        <v>161047024</v>
       </c>
       <c r="DV38">
         <v>100</v>
@@ -7282,19 +8290,19 @@
         <v>100</v>
       </c>
       <c r="FQ38">
-        <v>75356</v>
+        <v>75421</v>
       </c>
       <c r="FR38">
         <v>100</v>
       </c>
       <c r="FS38" s="2">
-        <v>125203000000</v>
+        <v>125270000000</v>
       </c>
       <c r="FT38">
         <v>100</v>
       </c>
       <c r="FU38" s="2">
-        <v>532361000000</v>
+        <v>529687000000</v>
       </c>
     </row>
     <row r="39" spans="1:177" x14ac:dyDescent="0.3">
@@ -7302,7 +8310,7 @@
         <v>45658</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -7323,19 +8331,19 @@
         <v>1028</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J39">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M39">
-        <v>47125088</v>
+        <v>160702328</v>
       </c>
       <c r="P39">
         <v>84</v>
@@ -7347,7 +8355,7 @@
         <v>100</v>
       </c>
       <c r="S39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T39">
         <v>100</v>
@@ -7356,16 +8364,16 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="W39">
-        <v>59534392</v>
+        <v>332304536</v>
       </c>
       <c r="Z39">
         <v>14</v>
       </c>
       <c r="AA39">
-        <v>75438</v>
+        <v>75377</v>
       </c>
       <c r="AB39">
         <v>100</v>
@@ -7377,7 +8385,7 @@
         <v>100</v>
       </c>
       <c r="AG39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CZ39">
         <v>100</v>
@@ -7404,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="DH39">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="DI39">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DJ39">
         <v>100</v>
@@ -7419,25 +8427,25 @@
         <v>100</v>
       </c>
       <c r="DM39">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="DN39">
         <v>100</v>
       </c>
       <c r="DO39">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="DP39">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DQ39">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DR39">
         <v>1</v>
       </c>
       <c r="DS39">
-        <v>47125088</v>
+        <v>160702328</v>
       </c>
       <c r="DV39">
         <v>100</v>
@@ -7461,19 +8469,19 @@
         <v>100</v>
       </c>
       <c r="FQ39">
-        <v>75415</v>
+        <v>75356</v>
       </c>
       <c r="FR39">
         <v>100</v>
       </c>
       <c r="FS39" s="2">
-        <v>121824000000</v>
+        <v>125203000000</v>
       </c>
       <c r="FT39">
         <v>100</v>
       </c>
       <c r="FU39" s="2">
-        <v>497460000000</v>
+        <v>532361000000</v>
       </c>
     </row>
     <row r="40" spans="1:177" x14ac:dyDescent="0.3">
@@ -7481,7 +8489,7 @@
         <v>45658</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -7502,19 +8510,19 @@
         <v>1028</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M40">
-        <v>143117088</v>
+        <v>47125088</v>
       </c>
       <c r="P40">
         <v>84</v>
@@ -7526,7 +8534,7 @@
         <v>100</v>
       </c>
       <c r="S40">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="T40">
         <v>100</v>
@@ -7535,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="W40">
-        <v>3127726951</v>
+        <v>59534392</v>
       </c>
       <c r="Z40">
         <v>14</v>
       </c>
       <c r="AA40">
-        <v>75448</v>
+        <v>75438</v>
       </c>
       <c r="AB40">
         <v>100</v>
@@ -7556,7 +8564,7 @@
         <v>100</v>
       </c>
       <c r="AG40">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="CZ40">
         <v>100</v>
@@ -7583,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="DH40">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="DI40">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="DJ40">
         <v>100</v>
@@ -7598,25 +8606,25 @@
         <v>100</v>
       </c>
       <c r="DM40">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="DN40">
         <v>100</v>
       </c>
       <c r="DO40">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="DP40">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="DQ40">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="DR40">
         <v>1</v>
       </c>
       <c r="DS40">
-        <v>143117088</v>
+        <v>47125088</v>
       </c>
       <c r="DV40">
         <v>100</v>
@@ -7640,19 +8648,19 @@
         <v>100</v>
       </c>
       <c r="FQ40">
-        <v>75421</v>
+        <v>75415</v>
       </c>
       <c r="FR40">
         <v>100</v>
       </c>
       <c r="FS40" s="2">
-        <v>126894000000</v>
+        <v>121824000000</v>
       </c>
       <c r="FT40">
         <v>100</v>
       </c>
       <c r="FU40" s="2">
-        <v>552282000000</v>
+        <v>497460000000</v>
       </c>
     </row>
     <row r="41" spans="1:177" x14ac:dyDescent="0.3">
@@ -7660,7 +8668,7 @@
         <v>45658</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -7681,19 +8689,19 @@
         <v>1028</v>
       </c>
       <c r="I41">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M41">
-        <v>182366664</v>
+        <v>143117088</v>
       </c>
       <c r="P41">
         <v>84</v>
@@ -7705,7 +8713,7 @@
         <v>100</v>
       </c>
       <c r="S41">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="T41">
         <v>100</v>
@@ -7714,16 +8722,16 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W41">
-        <v>4223356239</v>
+        <v>3127726951</v>
       </c>
       <c r="Z41">
         <v>14</v>
       </c>
       <c r="AA41">
-        <v>75433</v>
+        <v>75448</v>
       </c>
       <c r="AB41">
         <v>100</v>
@@ -7735,7 +8743,7 @@
         <v>100</v>
       </c>
       <c r="AG41">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="CZ41">
         <v>100</v>
@@ -7762,10 +8770,10 @@
         <v>0</v>
       </c>
       <c r="DH41">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="DI41">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DJ41">
         <v>100</v>
@@ -7777,25 +8785,25 @@
         <v>100</v>
       </c>
       <c r="DM41">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="DN41">
         <v>100</v>
       </c>
       <c r="DO41">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="DP41">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DQ41">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DR41">
         <v>1</v>
       </c>
       <c r="DS41">
-        <v>182366664</v>
+        <v>143117088</v>
       </c>
       <c r="DV41">
         <v>100</v>
@@ -7819,19 +8827,19 @@
         <v>100</v>
       </c>
       <c r="FQ41">
-        <v>75408</v>
+        <v>75421</v>
       </c>
       <c r="FR41">
         <v>100</v>
       </c>
       <c r="FS41" s="2">
-        <v>122615000000</v>
+        <v>126894000000</v>
       </c>
       <c r="FT41">
         <v>100</v>
       </c>
       <c r="FU41" s="2">
-        <v>535141000000</v>
+        <v>552282000000</v>
       </c>
     </row>
     <row r="42" spans="1:177" x14ac:dyDescent="0.3">
@@ -7839,7 +8847,7 @@
         <v>45658</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -7860,19 +8868,19 @@
         <v>1028</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J42">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M42">
-        <v>93915200</v>
+        <v>182366664</v>
       </c>
       <c r="P42">
         <v>84</v>
@@ -7884,25 +8892,25 @@
         <v>100</v>
       </c>
       <c r="S42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T42">
         <v>100</v>
       </c>
       <c r="U42">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="W42">
-        <v>541198004</v>
+        <v>4223356239</v>
       </c>
       <c r="Z42">
         <v>14</v>
       </c>
       <c r="AA42">
-        <v>75444</v>
+        <v>75433</v>
       </c>
       <c r="AB42">
         <v>100</v>
@@ -7914,7 +8922,7 @@
         <v>100</v>
       </c>
       <c r="AG42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CZ42">
         <v>100</v>
@@ -7941,10 +8949,10 @@
         <v>0</v>
       </c>
       <c r="DH42">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="DI42">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="DJ42">
         <v>100</v>
@@ -7956,25 +8964,25 @@
         <v>100</v>
       </c>
       <c r="DM42">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DN42">
         <v>100</v>
       </c>
       <c r="DO42">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="DP42">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="DQ42">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="DR42">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="DS42">
-        <v>93915200</v>
+        <v>182366664</v>
       </c>
       <c r="DV42">
         <v>100</v>
@@ -7998,19 +9006,19 @@
         <v>100</v>
       </c>
       <c r="FQ42">
-        <v>75423</v>
+        <v>75408</v>
       </c>
       <c r="FR42">
         <v>100</v>
       </c>
       <c r="FS42" s="2">
-        <v>121548000000</v>
+        <v>122615000000</v>
       </c>
       <c r="FT42">
         <v>100</v>
       </c>
       <c r="FU42" s="2">
-        <v>572254000000</v>
+        <v>535141000000</v>
       </c>
     </row>
     <row r="43" spans="1:177" x14ac:dyDescent="0.3">
@@ -8018,7 +9026,7 @@
         <v>45658</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -8042,16 +9050,16 @@
         <v>12</v>
       </c>
       <c r="J43">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M43">
-        <v>5765184</v>
+        <v>93915200</v>
       </c>
       <c r="P43">
         <v>84</v>
@@ -8069,19 +9077,19 @@
         <v>100</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V43">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W43">
-        <v>4034228615</v>
+        <v>541198004</v>
       </c>
       <c r="Z43">
         <v>14</v>
       </c>
       <c r="AA43">
-        <v>75435</v>
+        <v>75444</v>
       </c>
       <c r="AB43">
         <v>100</v>
@@ -8120,10 +9128,10 @@
         <v>0</v>
       </c>
       <c r="DH43">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="DI43">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="DJ43">
         <v>100</v>
@@ -8141,19 +9149,19 @@
         <v>100</v>
       </c>
       <c r="DO43">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="DP43">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="DQ43">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="DR43">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="DS43">
-        <v>5765184</v>
+        <v>93915200</v>
       </c>
       <c r="DV43">
         <v>100</v>
@@ -8177,19 +9185,19 @@
         <v>100</v>
       </c>
       <c r="FQ43">
-        <v>75411</v>
+        <v>75423</v>
       </c>
       <c r="FR43">
         <v>100</v>
       </c>
       <c r="FS43" s="2">
-        <v>120130000000</v>
+        <v>121548000000</v>
       </c>
       <c r="FT43">
         <v>100</v>
       </c>
       <c r="FU43" s="2">
-        <v>536336000000</v>
+        <v>572254000000</v>
       </c>
     </row>
     <row r="44" spans="1:177" x14ac:dyDescent="0.3">
@@ -8197,7 +9205,7 @@
         <v>45658</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -8218,23 +9226,23 @@
         <v>1028</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
       <c r="L44">
+        <v>68</v>
+      </c>
+      <c r="M44">
+        <v>5765184</v>
+      </c>
+      <c r="P44">
         <v>84</v>
       </c>
-      <c r="M44">
-        <v>231632464</v>
-      </c>
-      <c r="P44">
-        <v>89</v>
-      </c>
       <c r="Q44">
         <v>0</v>
       </c>
@@ -8242,7 +9250,7 @@
         <v>100</v>
       </c>
       <c r="S44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T44">
         <v>100</v>
@@ -8251,16 +9259,16 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W44">
-        <v>3522292476</v>
+        <v>4034228615</v>
       </c>
       <c r="Z44">
         <v>14</v>
       </c>
       <c r="AA44">
-        <v>75437</v>
+        <v>75435</v>
       </c>
       <c r="AB44">
         <v>100</v>
@@ -8272,7 +9280,7 @@
         <v>100</v>
       </c>
       <c r="AG44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CZ44">
         <v>100</v>
@@ -8299,10 +9307,10 @@
         <v>0</v>
       </c>
       <c r="DH44">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="DI44">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="DJ44">
         <v>100</v>
@@ -8314,25 +9322,25 @@
         <v>100</v>
       </c>
       <c r="DM44">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="DN44">
         <v>100</v>
       </c>
       <c r="DO44">
-        <v>564</v>
+        <v>499</v>
       </c>
       <c r="DP44">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="DQ44">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="DR44">
         <v>1</v>
       </c>
       <c r="DS44">
-        <v>231632464</v>
+        <v>5765184</v>
       </c>
       <c r="DV44">
         <v>100</v>
@@ -8356,19 +9364,19 @@
         <v>100</v>
       </c>
       <c r="FQ44">
-        <v>75412</v>
+        <v>75411</v>
       </c>
       <c r="FR44">
         <v>100</v>
       </c>
       <c r="FS44" s="2">
-        <v>128832000000</v>
+        <v>120130000000</v>
       </c>
       <c r="FT44">
         <v>100</v>
       </c>
       <c r="FU44" s="2">
-        <v>501731000000</v>
+        <v>536336000000</v>
       </c>
     </row>
     <row r="45" spans="1:177" x14ac:dyDescent="0.3">
@@ -8376,7 +9384,7 @@
         <v>45658</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -8397,22 +9405,22 @@
         <v>1028</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J45">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M45">
-        <v>130368664</v>
+        <v>231632464</v>
       </c>
       <c r="P45">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -8421,7 +9429,7 @@
         <v>100</v>
       </c>
       <c r="S45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T45">
         <v>100</v>
@@ -8430,16 +9438,16 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="W45">
-        <v>470233503</v>
+        <v>3522292476</v>
       </c>
       <c r="Z45">
         <v>14</v>
       </c>
       <c r="AA45">
-        <v>75441</v>
+        <v>75437</v>
       </c>
       <c r="AB45">
         <v>100</v>
@@ -8451,7 +9459,7 @@
         <v>100</v>
       </c>
       <c r="AG45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CZ45">
         <v>100</v>
@@ -8493,13 +9501,13 @@
         <v>100</v>
       </c>
       <c r="DM45">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DN45">
         <v>100</v>
       </c>
       <c r="DO45">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="DP45">
         <v>27</v>
@@ -8508,10 +9516,10 @@
         <v>27</v>
       </c>
       <c r="DR45">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="DS45">
-        <v>130368664</v>
+        <v>231632464</v>
       </c>
       <c r="DV45">
         <v>100</v>
@@ -8535,19 +9543,19 @@
         <v>100</v>
       </c>
       <c r="FQ45">
-        <v>75418</v>
+        <v>75412</v>
       </c>
       <c r="FR45">
         <v>100</v>
       </c>
       <c r="FS45" s="2">
-        <v>123076000000</v>
+        <v>128832000000</v>
       </c>
       <c r="FT45">
         <v>100</v>
       </c>
       <c r="FU45" s="2">
-        <v>547702000000</v>
+        <v>501731000000</v>
       </c>
     </row>
     <row r="46" spans="1:177" x14ac:dyDescent="0.3">
@@ -8555,7 +9563,7 @@
         <v>45658</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -8576,22 +9584,22 @@
         <v>1028</v>
       </c>
       <c r="I46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J46">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M46">
-        <v>96155760</v>
+        <v>130368664</v>
       </c>
       <c r="P46">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -8600,25 +9608,25 @@
         <v>100</v>
       </c>
       <c r="S46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T46">
         <v>100</v>
       </c>
       <c r="U46">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W46">
-        <v>410313955</v>
+        <v>470233503</v>
       </c>
       <c r="Z46">
         <v>14</v>
       </c>
       <c r="AA46">
-        <v>75434</v>
+        <v>75441</v>
       </c>
       <c r="AB46">
         <v>100</v>
@@ -8630,7 +9638,7 @@
         <v>100</v>
       </c>
       <c r="AG46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CZ46">
         <v>100</v>
@@ -8657,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="DH46">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="DI46">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="DJ46">
         <v>100</v>
@@ -8678,19 +9686,19 @@
         <v>100</v>
       </c>
       <c r="DO46">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="DP46">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="DQ46">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="DR46">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="DS46">
-        <v>96155760</v>
+        <v>130368664</v>
       </c>
       <c r="DV46">
         <v>100</v>
@@ -8714,18 +9722,197 @@
         <v>100</v>
       </c>
       <c r="FQ46">
+        <v>75418</v>
+      </c>
+      <c r="FR46">
+        <v>100</v>
+      </c>
+      <c r="FS46" s="2">
+        <v>123076000000</v>
+      </c>
+      <c r="FT46">
+        <v>100</v>
+      </c>
+      <c r="FU46" s="2">
+        <v>547702000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8001560000000</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1028</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>39</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>80</v>
+      </c>
+      <c r="M47">
+        <v>96155760</v>
+      </c>
+      <c r="P47">
+        <v>84</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>100</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="T47">
+        <v>100</v>
+      </c>
+      <c r="U47">
+        <v>8</v>
+      </c>
+      <c r="V47">
+        <v>86</v>
+      </c>
+      <c r="W47">
+        <v>410313955</v>
+      </c>
+      <c r="Z47">
+        <v>14</v>
+      </c>
+      <c r="AA47">
+        <v>75434</v>
+      </c>
+      <c r="AB47">
+        <v>100</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>100</v>
+      </c>
+      <c r="AG47">
+        <v>9</v>
+      </c>
+      <c r="CZ47">
+        <v>100</v>
+      </c>
+      <c r="DA47">
+        <v>0</v>
+      </c>
+      <c r="DB47">
+        <v>100</v>
+      </c>
+      <c r="DC47">
+        <v>0</v>
+      </c>
+      <c r="DD47">
+        <v>100</v>
+      </c>
+      <c r="DE47">
+        <v>0</v>
+      </c>
+      <c r="DF47">
+        <v>100</v>
+      </c>
+      <c r="DG47">
+        <v>0</v>
+      </c>
+      <c r="DH47">
+        <v>65</v>
+      </c>
+      <c r="DI47">
+        <v>35</v>
+      </c>
+      <c r="DJ47">
+        <v>100</v>
+      </c>
+      <c r="DK47">
+        <v>0</v>
+      </c>
+      <c r="DL47">
+        <v>100</v>
+      </c>
+      <c r="DM47">
+        <v>192</v>
+      </c>
+      <c r="DN47">
+        <v>100</v>
+      </c>
+      <c r="DO47">
+        <v>497</v>
+      </c>
+      <c r="DP47">
+        <v>35</v>
+      </c>
+      <c r="DQ47">
+        <v>35</v>
+      </c>
+      <c r="DR47">
+        <v>1</v>
+      </c>
+      <c r="DS47">
+        <v>96155760</v>
+      </c>
+      <c r="DV47">
+        <v>100</v>
+      </c>
+      <c r="DW47">
+        <v>0</v>
+      </c>
+      <c r="DX47">
+        <v>100</v>
+      </c>
+      <c r="DY47">
+        <v>0</v>
+      </c>
+      <c r="DZ47">
+        <v>200</v>
+      </c>
+      <c r="EA47">
+        <v>0</v>
+      </c>
+      <c r="FP47">
+        <v>100</v>
+      </c>
+      <c r="FQ47">
         <v>75414</v>
       </c>
-      <c r="FR46">
-        <v>100</v>
-      </c>
-      <c r="FS46" s="2">
+      <c r="FR47">
+        <v>100</v>
+      </c>
+      <c r="FS47" s="2">
         <v>123138000000</v>
       </c>
-      <c r="FT46">
-        <v>100</v>
-      </c>
-      <c r="FU46" s="2">
+      <c r="FT47">
+        <v>100</v>
+      </c>
+      <c r="FU47" s="2">
         <v>580632000000</v>
       </c>
     </row>

--- a/ML_4/DataSet2.xlsx
+++ b/ML_4/DataSet2.xlsx
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GU1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2233,7 @@
         <v>8001560000000</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4381,7 +4381,7 @@
         <v>8001560000000</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -7603,7 +7603,7 @@
         <v>8001560000000</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -9751,7 +9751,7 @@
         <v>8001560000000</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
